--- a/Data Files/BC_Sales_Template_2025.xlsx
+++ b/Data Files/BC_Sales_Template_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushanthgopireddy/Documents/Personal/BC_Internal_OP/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C9394-046A-9345-97B6-3FF9C3EA90C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C024A-DE29-2449-97DB-9104167093E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{B9EC9D79-6A4C-B043-81F0-7FC861CE85A8}"/>
   </bookViews>
@@ -644,20 +644,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1036,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623F3C7E-0F50-CC4E-AD4E-E7E4467FEFA9}">
   <dimension ref="A1:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H257" sqref="H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10435,459 +10437,549 @@
       <c r="S274" s="8"/>
       <c r="T274" s="8"/>
     </row>
-    <row r="275" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="11"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="13"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
-      <c r="G275" s="13"/>
-      <c r="H275" s="13"/>
-      <c r="I275" s="13"/>
-      <c r="J275" s="13"/>
-      <c r="K275" s="16"/>
-      <c r="L275" s="13"/>
-      <c r="M275" s="13"/>
-      <c r="N275" s="13"/>
-      <c r="O275" s="13"/>
-      <c r="P275" s="16"/>
-    </row>
-    <row r="276" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="11"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="13"/>
-      <c r="D276" s="13"/>
-      <c r="E276" s="13"/>
-      <c r="F276" s="13"/>
-      <c r="G276" s="13"/>
-      <c r="H276" s="13"/>
-      <c r="I276" s="13"/>
-      <c r="J276" s="13"/>
-      <c r="K276" s="16"/>
-      <c r="L276" s="13"/>
-      <c r="M276" s="13"/>
-      <c r="N276" s="13"/>
-      <c r="O276" s="13"/>
-      <c r="P276" s="16"/>
-    </row>
-    <row r="277" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="11"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="13"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
-      <c r="F277" s="13"/>
-      <c r="G277" s="13"/>
-      <c r="H277" s="13"/>
-      <c r="I277" s="13"/>
-      <c r="J277" s="13"/>
-      <c r="K277" s="16"/>
-      <c r="L277" s="13"/>
-      <c r="M277" s="13"/>
-      <c r="N277" s="13"/>
-      <c r="O277" s="13"/>
-      <c r="P277" s="16"/>
-    </row>
-    <row r="278" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="11"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="13"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="13"/>
-      <c r="I278" s="13"/>
-      <c r="J278" s="13"/>
-      <c r="K278" s="16"/>
-      <c r="L278" s="13"/>
-      <c r="M278" s="13"/>
-      <c r="N278" s="13"/>
-      <c r="O278" s="13"/>
-      <c r="P278" s="16"/>
-    </row>
-    <row r="279" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="11"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="13"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="13"/>
-      <c r="F279" s="13"/>
-      <c r="G279" s="13"/>
-      <c r="H279" s="13"/>
-      <c r="I279" s="13"/>
-      <c r="J279" s="13"/>
-      <c r="K279" s="16"/>
-      <c r="L279" s="13"/>
-      <c r="M279" s="13"/>
-      <c r="N279" s="13"/>
-      <c r="O279" s="13"/>
-      <c r="P279" s="16"/>
-    </row>
-    <row r="280" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="11"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="13"/>
-      <c r="D280" s="13"/>
-      <c r="E280" s="13"/>
-      <c r="F280" s="13"/>
-      <c r="G280" s="13"/>
-      <c r="H280" s="13"/>
-      <c r="I280" s="13"/>
-      <c r="J280" s="13"/>
-      <c r="K280" s="16"/>
-      <c r="L280" s="13"/>
-      <c r="M280" s="13"/>
-      <c r="N280" s="13"/>
-      <c r="O280" s="13"/>
-      <c r="P280" s="16"/>
-    </row>
-    <row r="281" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="11"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
-      <c r="F281" s="13"/>
-      <c r="G281" s="13"/>
-      <c r="H281" s="13"/>
-      <c r="I281" s="13"/>
-      <c r="J281" s="13"/>
-      <c r="K281" s="16"/>
-      <c r="L281" s="13"/>
-      <c r="M281" s="13"/>
-      <c r="N281" s="13"/>
-      <c r="O281" s="13"/>
-      <c r="P281" s="16"/>
-    </row>
-    <row r="282" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="11"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="13"/>
-      <c r="D282" s="13"/>
-      <c r="E282" s="13"/>
-      <c r="F282" s="13"/>
-      <c r="G282" s="13"/>
-      <c r="H282" s="13"/>
-      <c r="I282" s="13"/>
-      <c r="J282" s="13"/>
-      <c r="K282" s="16"/>
-      <c r="L282" s="13"/>
-      <c r="M282" s="13"/>
-      <c r="N282" s="13"/>
-      <c r="O282" s="13"/>
-      <c r="P282" s="16"/>
-    </row>
-    <row r="283" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="11"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="13"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
-      <c r="F283" s="13"/>
-      <c r="G283" s="13"/>
-      <c r="H283" s="13"/>
-      <c r="I283" s="13"/>
-      <c r="J283" s="13"/>
-      <c r="K283" s="16"/>
-      <c r="L283" s="13"/>
-      <c r="M283" s="13"/>
-      <c r="N283" s="13"/>
-      <c r="O283" s="13"/>
-      <c r="P283" s="16"/>
-    </row>
-    <row r="284" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="11"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="13"/>
-      <c r="D284" s="13"/>
-      <c r="E284" s="13"/>
-      <c r="F284" s="13"/>
-      <c r="G284" s="13"/>
-      <c r="H284" s="13"/>
-      <c r="I284" s="13"/>
-      <c r="J284" s="13"/>
-      <c r="K284" s="16"/>
-      <c r="L284" s="13"/>
-      <c r="M284" s="13"/>
-      <c r="N284" s="13"/>
-      <c r="O284" s="13"/>
-      <c r="P284" s="16"/>
-    </row>
-    <row r="285" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="11"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="13"/>
-      <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
-      <c r="F285" s="13"/>
-      <c r="G285" s="13"/>
-      <c r="H285" s="13"/>
-      <c r="I285" s="13"/>
-      <c r="J285" s="13"/>
-      <c r="K285" s="16"/>
-      <c r="L285" s="13"/>
-      <c r="M285" s="13"/>
-      <c r="N285" s="13"/>
-      <c r="O285" s="13"/>
-      <c r="P285" s="16"/>
-    </row>
-    <row r="286" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="11"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="13"/>
-      <c r="D286" s="13"/>
-      <c r="E286" s="13"/>
-      <c r="F286" s="13"/>
-      <c r="G286" s="13"/>
-      <c r="H286" s="13"/>
-      <c r="I286" s="13"/>
-      <c r="J286" s="13"/>
-      <c r="K286" s="16"/>
-      <c r="L286" s="13"/>
-      <c r="M286" s="13"/>
-      <c r="N286" s="13"/>
-      <c r="O286" s="13"/>
-      <c r="P286" s="16"/>
-    </row>
-    <row r="287" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="11"/>
-      <c r="B287" s="12"/>
-      <c r="C287" s="13"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="13"/>
-      <c r="G287" s="13"/>
-      <c r="H287" s="13"/>
-      <c r="I287" s="13"/>
-      <c r="J287" s="13"/>
-      <c r="K287" s="16"/>
-      <c r="L287" s="13"/>
-      <c r="M287" s="13"/>
-      <c r="N287" s="13"/>
-      <c r="O287" s="13"/>
-      <c r="P287" s="16"/>
-    </row>
-    <row r="288" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="11"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="13"/>
-      <c r="G288" s="13"/>
-      <c r="H288" s="13"/>
-      <c r="I288" s="13"/>
-      <c r="J288" s="13"/>
-      <c r="K288" s="16"/>
-      <c r="L288" s="13"/>
-      <c r="M288" s="13"/>
-      <c r="N288" s="13"/>
-      <c r="O288" s="13"/>
-      <c r="P288" s="16"/>
-    </row>
-    <row r="289" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="11"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="13"/>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
-      <c r="F289" s="13"/>
-      <c r="G289" s="13"/>
-      <c r="H289" s="13"/>
-      <c r="I289" s="13"/>
-      <c r="J289" s="13"/>
-      <c r="K289" s="16"/>
-      <c r="L289" s="13"/>
-      <c r="M289" s="13"/>
-      <c r="N289" s="13"/>
-      <c r="O289" s="13"/>
-      <c r="P289" s="16"/>
-    </row>
-    <row r="290" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="11"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="13"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
-      <c r="F290" s="13"/>
-      <c r="G290" s="13"/>
-      <c r="H290" s="13"/>
-      <c r="I290" s="13"/>
-      <c r="J290" s="13"/>
-      <c r="K290" s="16"/>
-      <c r="L290" s="13"/>
-      <c r="M290" s="13"/>
-      <c r="N290" s="13"/>
-      <c r="O290" s="13"/>
-      <c r="P290" s="16"/>
-    </row>
-    <row r="291" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="11"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="13"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="13"/>
-      <c r="F291" s="13"/>
-      <c r="G291" s="13"/>
-      <c r="H291" s="13"/>
-      <c r="I291" s="13"/>
-      <c r="J291" s="13"/>
-      <c r="K291" s="16"/>
-      <c r="L291" s="13"/>
-      <c r="M291" s="13"/>
-      <c r="N291" s="13"/>
-      <c r="O291" s="13"/>
-      <c r="P291" s="16"/>
-    </row>
-    <row r="292" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="11"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="13"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="13"/>
-      <c r="F292" s="13"/>
-      <c r="G292" s="13"/>
-      <c r="H292" s="13"/>
-      <c r="I292" s="13"/>
-      <c r="J292" s="13"/>
-      <c r="K292" s="16"/>
-      <c r="L292" s="13"/>
-      <c r="M292" s="13"/>
-      <c r="N292" s="13"/>
-      <c r="O292" s="13"/>
-      <c r="P292" s="16"/>
-    </row>
-    <row r="293" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="11"/>
-      <c r="B293" s="12"/>
-      <c r="C293" s="13"/>
-      <c r="D293" s="13"/>
-      <c r="E293" s="13"/>
-      <c r="F293" s="13"/>
-      <c r="G293" s="13"/>
-      <c r="H293" s="13"/>
-      <c r="I293" s="13"/>
-      <c r="J293" s="13"/>
-      <c r="K293" s="16"/>
-      <c r="L293" s="13"/>
-      <c r="M293" s="13"/>
-      <c r="N293" s="13"/>
-      <c r="O293" s="13"/>
-      <c r="P293" s="16"/>
-    </row>
-    <row r="294" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="11"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="13"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="13"/>
-      <c r="F294" s="13"/>
-      <c r="G294" s="13"/>
-      <c r="H294" s="13"/>
-      <c r="I294" s="13"/>
-      <c r="J294" s="13"/>
-      <c r="K294" s="16"/>
-      <c r="L294" s="13"/>
-      <c r="M294" s="13"/>
-      <c r="N294" s="13"/>
-      <c r="O294" s="13"/>
-      <c r="P294" s="16"/>
-    </row>
-    <row r="295" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="11"/>
-      <c r="B295" s="12"/>
-      <c r="C295" s="13"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="13"/>
-      <c r="G295" s="13"/>
-      <c r="H295" s="13"/>
-      <c r="I295" s="13"/>
-      <c r="J295" s="13"/>
-      <c r="K295" s="16"/>
-      <c r="L295" s="13"/>
-      <c r="M295" s="13"/>
-      <c r="N295" s="13"/>
-      <c r="O295" s="13"/>
-      <c r="P295" s="16"/>
-    </row>
-    <row r="296" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="11"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="13"/>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13"/>
-      <c r="F296" s="13"/>
-      <c r="G296" s="13"/>
-      <c r="H296" s="13"/>
-      <c r="I296" s="13"/>
-      <c r="J296" s="13"/>
-      <c r="K296" s="16"/>
-      <c r="L296" s="13"/>
-      <c r="M296" s="13"/>
-      <c r="N296" s="13"/>
-      <c r="O296" s="13"/>
-      <c r="P296" s="16"/>
-    </row>
-    <row r="297" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="11"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="13"/>
-      <c r="G297" s="13"/>
-      <c r="H297" s="13"/>
-      <c r="I297" s="13"/>
-      <c r="J297" s="13"/>
-      <c r="K297" s="16"/>
-      <c r="L297" s="13"/>
-      <c r="M297" s="13"/>
-      <c r="N297" s="13"/>
-      <c r="O297" s="13"/>
-      <c r="P297" s="16"/>
-    </row>
-    <row r="298" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="11"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="13"/>
-      <c r="H298" s="13"/>
-      <c r="I298" s="13"/>
-      <c r="J298" s="13"/>
-      <c r="K298" s="16"/>
-      <c r="L298" s="13"/>
-      <c r="M298" s="13"/>
-      <c r="N298" s="13"/>
-      <c r="O298" s="13"/>
-      <c r="P298" s="16"/>
-    </row>
-    <row r="299" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="11"/>
-      <c r="B299" s="12"/>
-      <c r="C299" s="13"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="13"/>
-      <c r="H299" s="13"/>
-      <c r="I299" s="13"/>
-      <c r="J299" s="13"/>
-      <c r="K299" s="16"/>
-      <c r="L299" s="13"/>
-      <c r="M299" s="13"/>
-      <c r="N299" s="13"/>
-      <c r="O299" s="13"/>
-      <c r="P299" s="16"/>
-    </row>
-    <row r="300" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K300" s="15"/>
-      <c r="P300" s="15"/>
+    <row r="275" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="14">
+        <v>45931</v>
+      </c>
+      <c r="B275" s="15"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="16"/>
+      <c r="J275" s="16"/>
+      <c r="L275" s="16"/>
+      <c r="M275" s="16"/>
+      <c r="N275" s="16"/>
+      <c r="O275" s="16"/>
+      <c r="Q275" s="2"/>
+      <c r="R275" s="2"/>
+      <c r="S275" s="2"/>
+      <c r="T275" s="2"/>
+    </row>
+    <row r="276" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="14">
+        <v>45932</v>
+      </c>
+      <c r="B276" s="15"/>
+      <c r="C276" s="16"/>
+      <c r="D276" s="16"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="16"/>
+      <c r="I276" s="16"/>
+      <c r="J276" s="16"/>
+      <c r="L276" s="16"/>
+      <c r="M276" s="16"/>
+      <c r="N276" s="16"/>
+      <c r="O276" s="16"/>
+      <c r="Q276" s="2"/>
+      <c r="R276" s="2"/>
+      <c r="S276" s="2"/>
+      <c r="T276" s="2"/>
+    </row>
+    <row r="277" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="14">
+        <v>45933</v>
+      </c>
+      <c r="B277" s="15"/>
+      <c r="C277" s="16"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="16"/>
+      <c r="I277" s="16"/>
+      <c r="J277" s="16"/>
+      <c r="L277" s="16"/>
+      <c r="M277" s="16"/>
+      <c r="N277" s="16"/>
+      <c r="O277" s="16"/>
+      <c r="Q277" s="2"/>
+      <c r="R277" s="2"/>
+      <c r="S277" s="2"/>
+      <c r="T277" s="2"/>
+    </row>
+    <row r="278" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="14">
+        <v>45934</v>
+      </c>
+      <c r="B278" s="15"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="16"/>
+      <c r="I278" s="16"/>
+      <c r="J278" s="16"/>
+      <c r="L278" s="16"/>
+      <c r="M278" s="16"/>
+      <c r="N278" s="16"/>
+      <c r="O278" s="16"/>
+      <c r="Q278" s="2"/>
+      <c r="R278" s="2"/>
+      <c r="S278" s="2"/>
+      <c r="T278" s="2"/>
+    </row>
+    <row r="279" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="14">
+        <v>45935</v>
+      </c>
+      <c r="B279" s="15"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="16"/>
+      <c r="I279" s="16"/>
+      <c r="J279" s="16"/>
+      <c r="L279" s="16"/>
+      <c r="M279" s="16"/>
+      <c r="N279" s="16"/>
+      <c r="O279" s="16"/>
+      <c r="Q279" s="2"/>
+      <c r="R279" s="2"/>
+      <c r="S279" s="2"/>
+      <c r="T279" s="2"/>
+    </row>
+    <row r="280" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="14">
+        <v>45936</v>
+      </c>
+      <c r="B280" s="15"/>
+      <c r="C280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="16"/>
+      <c r="F280" s="16"/>
+      <c r="G280" s="16"/>
+      <c r="H280" s="16"/>
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
+      <c r="L280" s="16"/>
+      <c r="M280" s="16"/>
+      <c r="N280" s="16"/>
+      <c r="O280" s="16"/>
+      <c r="Q280" s="2"/>
+      <c r="R280" s="2"/>
+      <c r="S280" s="2"/>
+      <c r="T280" s="2"/>
+    </row>
+    <row r="281" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="14">
+        <v>45937</v>
+      </c>
+      <c r="B281" s="15"/>
+      <c r="C281" s="16"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="16"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="16"/>
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
+      <c r="L281" s="16"/>
+      <c r="M281" s="16"/>
+      <c r="N281" s="16"/>
+      <c r="O281" s="16"/>
+      <c r="Q281" s="2"/>
+      <c r="R281" s="2"/>
+      <c r="S281" s="2"/>
+      <c r="T281" s="2"/>
+    </row>
+    <row r="282" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="14">
+        <v>45938</v>
+      </c>
+      <c r="B282" s="15"/>
+      <c r="C282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="16"/>
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+      <c r="L282" s="16"/>
+      <c r="M282" s="16"/>
+      <c r="N282" s="16"/>
+      <c r="O282" s="16"/>
+      <c r="Q282" s="2"/>
+      <c r="R282" s="2"/>
+      <c r="S282" s="2"/>
+      <c r="T282" s="2"/>
+    </row>
+    <row r="283" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="14">
+        <v>45939</v>
+      </c>
+      <c r="B283" s="15"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
+      <c r="H283" s="16"/>
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
+      <c r="L283" s="16"/>
+      <c r="M283" s="16"/>
+      <c r="N283" s="16"/>
+      <c r="O283" s="16"/>
+      <c r="Q283" s="2"/>
+      <c r="R283" s="2"/>
+      <c r="S283" s="2"/>
+      <c r="T283" s="2"/>
+    </row>
+    <row r="284" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="14">
+        <v>45940</v>
+      </c>
+      <c r="B284" s="15"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
+      <c r="L284" s="16"/>
+      <c r="M284" s="16"/>
+      <c r="N284" s="16"/>
+      <c r="O284" s="16"/>
+      <c r="Q284" s="2"/>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+    </row>
+    <row r="285" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="14">
+        <v>45941</v>
+      </c>
+      <c r="B285" s="15"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
+      <c r="L285" s="16"/>
+      <c r="M285" s="16"/>
+      <c r="N285" s="16"/>
+      <c r="O285" s="16"/>
+      <c r="Q285" s="2"/>
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+    </row>
+    <row r="286" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="14">
+        <v>45942</v>
+      </c>
+      <c r="B286" s="15"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="16"/>
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
+      <c r="L286" s="16"/>
+      <c r="M286" s="16"/>
+      <c r="N286" s="16"/>
+      <c r="O286" s="16"/>
+      <c r="Q286" s="2"/>
+      <c r="R286" s="2"/>
+      <c r="S286" s="2"/>
+      <c r="T286" s="2"/>
+    </row>
+    <row r="287" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="14">
+        <v>45943</v>
+      </c>
+      <c r="B287" s="15"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
+      <c r="L287" s="16"/>
+      <c r="M287" s="16"/>
+      <c r="N287" s="16"/>
+      <c r="O287" s="16"/>
+      <c r="Q287" s="2"/>
+      <c r="R287" s="2"/>
+      <c r="S287" s="2"/>
+      <c r="T287" s="2"/>
+    </row>
+    <row r="288" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="14">
+        <v>45944</v>
+      </c>
+      <c r="B288" s="15"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
+      <c r="L288" s="16"/>
+      <c r="M288" s="16"/>
+      <c r="N288" s="16"/>
+      <c r="O288" s="16"/>
+      <c r="Q288" s="2"/>
+      <c r="R288" s="2"/>
+      <c r="S288" s="2"/>
+      <c r="T288" s="2"/>
+    </row>
+    <row r="289" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="14">
+        <v>45945</v>
+      </c>
+      <c r="B289" s="15"/>
+      <c r="C289" s="16"/>
+      <c r="D289" s="16"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
+      <c r="L289" s="16"/>
+      <c r="M289" s="16"/>
+      <c r="N289" s="16"/>
+      <c r="O289" s="16"/>
+      <c r="Q289" s="2"/>
+      <c r="R289" s="2"/>
+      <c r="S289" s="2"/>
+      <c r="T289" s="2"/>
+    </row>
+    <row r="290" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="14">
+        <v>45946</v>
+      </c>
+      <c r="B290" s="15"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
+      <c r="L290" s="16"/>
+      <c r="M290" s="16"/>
+      <c r="N290" s="16"/>
+      <c r="O290" s="16"/>
+      <c r="Q290" s="2"/>
+      <c r="R290" s="2"/>
+      <c r="S290" s="2"/>
+      <c r="T290" s="2"/>
+    </row>
+    <row r="291" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="14">
+        <v>45947</v>
+      </c>
+      <c r="B291" s="15"/>
+      <c r="C291" s="16"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
+      <c r="L291" s="16"/>
+      <c r="M291" s="16"/>
+      <c r="N291" s="16"/>
+      <c r="O291" s="16"/>
+      <c r="Q291" s="2"/>
+      <c r="R291" s="2"/>
+      <c r="S291" s="2"/>
+      <c r="T291" s="2"/>
+    </row>
+    <row r="292" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="14">
+        <v>45948</v>
+      </c>
+      <c r="B292" s="15"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="16"/>
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
+      <c r="L292" s="16"/>
+      <c r="M292" s="16"/>
+      <c r="N292" s="16"/>
+      <c r="O292" s="16"/>
+      <c r="Q292" s="2"/>
+      <c r="R292" s="2"/>
+      <c r="S292" s="2"/>
+      <c r="T292" s="2"/>
+    </row>
+    <row r="293" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="14">
+        <v>45949</v>
+      </c>
+      <c r="B293" s="15"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
+      <c r="L293" s="16"/>
+      <c r="M293" s="16"/>
+      <c r="N293" s="16"/>
+      <c r="O293" s="16"/>
+      <c r="Q293" s="2"/>
+      <c r="R293" s="2"/>
+      <c r="S293" s="2"/>
+      <c r="T293" s="2"/>
+    </row>
+    <row r="294" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="14">
+        <v>45950</v>
+      </c>
+      <c r="B294" s="15"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="16"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
+      <c r="L294" s="16"/>
+      <c r="M294" s="16"/>
+      <c r="N294" s="16"/>
+      <c r="O294" s="16"/>
+      <c r="Q294" s="2"/>
+      <c r="R294" s="2"/>
+      <c r="S294" s="2"/>
+      <c r="T294" s="2"/>
+    </row>
+    <row r="295" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="14">
+        <v>45951</v>
+      </c>
+      <c r="B295" s="15"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
+      <c r="L295" s="16"/>
+      <c r="M295" s="16"/>
+      <c r="N295" s="16"/>
+      <c r="O295" s="16"/>
+      <c r="Q295" s="2"/>
+      <c r="R295" s="2"/>
+      <c r="S295" s="2"/>
+      <c r="T295" s="2"/>
+    </row>
+    <row r="296" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="14">
+        <v>45952</v>
+      </c>
+      <c r="B296" s="15"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="16"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="16"/>
+      <c r="J296" s="16"/>
+      <c r="L296" s="16"/>
+      <c r="M296" s="16"/>
+      <c r="N296" s="16"/>
+      <c r="O296" s="16"/>
+      <c r="Q296" s="2"/>
+      <c r="R296" s="2"/>
+      <c r="S296" s="2"/>
+      <c r="T296" s="2"/>
+    </row>
+    <row r="297" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="14">
+        <v>45953</v>
+      </c>
+      <c r="B297" s="15"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="16"/>
+      <c r="E297" s="16"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="16"/>
+      <c r="I297" s="16"/>
+      <c r="J297" s="16"/>
+      <c r="L297" s="16"/>
+      <c r="M297" s="16"/>
+      <c r="N297" s="16"/>
+      <c r="O297" s="16"/>
+      <c r="Q297" s="2"/>
+      <c r="R297" s="2"/>
+      <c r="S297" s="2"/>
+      <c r="T297" s="2"/>
+    </row>
+    <row r="298" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="11"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
+      <c r="J298" s="12"/>
+      <c r="K298"/>
+      <c r="L298" s="12"/>
+      <c r="M298" s="12"/>
+      <c r="N298" s="12"/>
+      <c r="O298" s="12"/>
+      <c r="P298"/>
+    </row>
+    <row r="299" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="11"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
+      <c r="J299" s="12"/>
+      <c r="K299"/>
+      <c r="L299" s="12"/>
+      <c r="M299" s="12"/>
+      <c r="N299" s="12"/>
+      <c r="O299" s="12"/>
+      <c r="P299"/>
+    </row>
+    <row r="300" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K300" s="13"/>
+      <c r="P300" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T274" xr:uid="{623F3C7E-0F50-CC4E-AD4E-E7E4467FEFA9}"/>
